--- a/data/hotels_by_city/Houston/Houston_shard_506.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_506.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56761-d106248-Reviews-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Motel-6-Texas-City-I-45-South.h19848081.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,506 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r532740408-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>106248</t>
+  </si>
+  <si>
+    <t>532740408</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Nastiest not safe</t>
+  </si>
+  <si>
+    <t>I believe this is the nastiest hotel I have ever seen. We went out to supper and came back to a room that actually had. River running through it. People were working on their cars in the parking lot and. Lot of the people out side looked really sketchy. We left and went to comfort inn and suites. We don’t feel like we need to sleep with a pistol here</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r508254362-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>508254362</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>I recommend that you stay somewhere else.</t>
+  </si>
+  <si>
+    <t>The check in lobby renovation was unfinished and it didn't like like it was going to be worked on anytime soon. The television signal in the room was poor and only had approximately 15 channels. There was no channel guide on the tv and the front desk didn't have one. The wall repairs were very poorly done. The shower and sink area lacked a soap dish/holder and towel bars. It doesn't have a good place to hang a towel. The lens on the shower room light was broken. Three hairs were stuck to the side of the bath tub and there was a brown streak near the bathroom light switch. I hope it isn't feces.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Texas City, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>The check in lobby renovation was unfinished and it didn't like like it was going to be worked on anytime soon. The television signal in the room was poor and only had approximately 15 channels. There was no channel guide on the tv and the front desk didn't have one. The wall repairs were very poorly done. The shower and sink area lacked a soap dish/holder and towel bars. It doesn't have a good place to hang a towel. The lens on the shower room light was broken. Three hairs were stuck to the side of the bath tub and there was a brown streak near the bathroom light switch. I hope it isn't feces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r507912880-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>507912880</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>AWFUL DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>This was a disaster......every other hotel was booked so tried this one.  No light in barhroom, tv didn't work, telephone didn't work,  all guest were complaining of similar issues...this place is NASTY!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This was a disaster......every other hotel was booked so tried this one.  No light in barhroom, tv didn't work, telephone didn't work,  all guest were complaining of similar issues...this place is NASTY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r484520461-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>484520461</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Tina Anderson Best</t>
+  </si>
+  <si>
+    <t>I have been here a little over two weeks and I have not met a Friendlier Staff.anywhere..Everyone here has made us feel so welcome ..its not home but it's the closest thing we got to one right now..Wanna say thanks to everyone who has showed their generosity and hospitality to us..ESPECIALLY...Adrian.(Front Desk)..He is the best and has been AMAZING..he makes you feel right at home and very welcome and does everything he can to make sure your stay is as pleasant and fun as possible..I definitely recommend this place ...its affordable..friendly..and being updated with  AWSOME ROOMS..so if your just passing through or here for a lengthy stay..you will definitely feel right at home ......TINAMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I have been here a little over two weeks and I have not met a Friendlier Staff.anywhere..Everyone here has made us feel so welcome ..its not home but it's the closest thing we got to one right now..Wanna say thanks to everyone who has showed their generosity and hospitality to us..ESPECIALLY...Adrian.(Front Desk)..He is the best and has been AMAZING..he makes you feel right at home and very welcome and does everything he can to make sure your stay is as pleasant and fun as possible..I definitely recommend this place ...its affordable..friendly..and being updated with  AWSOME ROOMS..so if your just passing through or here for a lengthy stay..you will definitely feel right at home ......TINAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r429859442-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>429859442</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>A dump of a Motel 6</t>
+  </si>
+  <si>
+    <t>Calling this place a dump is unfair to dumps everywhere. Supposedly Motel 6 bought this location in 2013 and it is STILL being remodeled, 3 years later! The door to the room wouldn't lock securely, however we had no choice but to take it because no one else in the area would not take a pet in without a high-priced charge. We stayed for two nights but were locked out of our room because we had not "renewed" the electronic door key. We paid for the room and were unaware of this "rule".  There was no coffee machine in the room, no coffee in the main office, the microwave and refrigerator did not work. We ruined and lost two servings of leftover meals because of the fridge. Lights were burned out in the room and no one answered when we called to complain. Do not stay here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Calling this place a dump is unfair to dumps everywhere. Supposedly Motel 6 bought this location in 2013 and it is STILL being remodeled, 3 years later! The door to the room wouldn't lock securely, however we had no choice but to take it because no one else in the area would not take a pet in without a high-priced charge. We stayed for two nights but were locked out of our room because we had not "renewed" the electronic door key. We paid for the room and were unaware of this "rule".  There was no coffee machine in the room, no coffee in the main office, the microwave and refrigerator did not work. We ruined and lost two servings of leftover meals because of the fridge. Lights were burned out in the room and no one answered when we called to complain. Do not stay here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r418023427-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>418023427</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Disgusting and Rude</t>
+  </si>
+  <si>
+    <t>We checked in and went to our room, then immediately left. There was a roach on the wall, mold in the sink and bathroom and burns in the beds. I was given a full refund, but the hotel reported me as a no show to the booking company, who then charged me the full fee. SAVE YOURSELF THE TROUBLE.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r351195851-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>351195851</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Ewww....</t>
+  </si>
+  <si>
+    <t>Carpet gross,  closet door knob missing,  tub has rust stains,  bathroom faucet loose, front door gross, they were cleaning them when we went to lunch,  came back and they were still gross.  Bed uneven, decided to flip around to put my feet at the headboard when I discovered stain on the sheets that I passed out in last night.  Doubtful I'll be down here again. If I am,  I won't stay here.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r349809843-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>349809843</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Roach motel</t>
+  </si>
+  <si>
+    <t>Booked a cruise and decided to drive down the night before... Booked this hotel ahead of time because it was convenient and cheaper than most. The front desk was not helpful at all, a friend had booked a room, had a confirmation number but the woman's at the desk couldn't find her reservation. She would not do anything, instead gave us a 1-800 number to call and figure it out ourselves. We got our room. (King size, non smoking) a roach ran across the desk as we walked in... Gross! Smelled like someone had smoked in there.   Went to check on our friends and their non smoking room smelled like someone had smoked 60 cigarettes in there, they decided to stay with another couple we were with in a full size bed. Their room had sheet rock falling off the wall. Overall, I would never recommend this hotel to anyone!!! Needs to be renovated and cleaned!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experienced Team Member at Motel 6 Texas City, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Booked a cruise and decided to drive down the night before... Booked this hotel ahead of time because it was convenient and cheaper than most. The front desk was not helpful at all, a friend had booked a room, had a confirmation number but the woman's at the desk couldn't find her reservation. She would not do anything, instead gave us a 1-800 number to call and figure it out ourselves. We got our room. (King size, non smoking) a roach ran across the desk as we walked in... Gross! Smelled like someone had smoked in there.   Went to check on our friends and their non smoking room smelled like someone had smoked 60 cigarettes in there, they decided to stay with another couple we were with in a full size bed. Their room had sheet rock falling off the wall. Overall, I would never recommend this hotel to anyone!!! Needs to be renovated and cleaned!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r349231623-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>349231623</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>3 rooms 2 nights</t>
+  </si>
+  <si>
+    <t>I checked in planned to stay a few weeks get to my room and there's no tv so I go to call front desk and there's no phone moved to another room tv was messed up but you could still watch it next morning ac goes out so I go to call them and the phone is there but do dont work the lady told me to hit the reset button i went to looking and the wires are all spliced together and outlet is busted up so on to the next room was just wanting to take quick shower and not wash my hair since I just did my hair before I had to move everything again well I get in and I feel my head getting wet the ceiling was leaking also the shower on and off pull thingy was broke, toilet didn't wanna flush,and our deadbolt on the door was broke so you had to have key to close door called the front desk(since we had a working phone) and they offered to move us again.....we checked outMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I checked in planned to stay a few weeks get to my room and there's no tv so I go to call front desk and there's no phone moved to another room tv was messed up but you could still watch it next morning ac goes out so I go to call them and the phone is there but do dont work the lady told me to hit the reset button i went to looking and the wires are all spliced together and outlet is busted up so on to the next room was just wanting to take quick shower and not wash my hair since I just did my hair before I had to move everything again well I get in and I feel my head getting wet the ceiling was leaking also the shower on and off pull thingy was broke, toilet didn't wanna flush,and our deadbolt on the door was broke so you had to have key to close door called the front desk(since we had a working phone) and they offered to move us again.....we checked outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r316922313-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>316922313</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Really run down</t>
+  </si>
+  <si>
+    <t>As title says hotel is really ran down. Used to be a LaQuinta.  Sheets were clean but the rest of the room was below par. Curtains were half down and held across window by stuffing edge up under valance. Bathroom horrible, floor not clean and the bathtub had been hand painted in the bottom to cover whAtever was left there. Only 2 towels and 1 wash cloth with maid counting all the linens she traded. VERY LOW RENT! PMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Texas City, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>As title says hotel is really ran down. Used to be a LaQuinta.  Sheets were clean but the rest of the room was below par. Curtains were half down and held across window by stuffing edge up under valance. Bathroom horrible, floor not clean and the bathtub had been hand painted in the bottom to cover whAtever was left there. Only 2 towels and 1 wash cloth with maid counting all the linens she traded. VERY LOW RENT! PMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r287326176-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>287326176</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Best customer service on the face of the earth!!!!</t>
+  </si>
+  <si>
+    <t>Normally I would rate this hotel a 1. It needs a total renovation on the rooms, grounds and pool. I had a very very bad experience up the road and we had explained it to the desk clerk before arriving at 1:30 in the morning. This was only his 4th day and his first time to be on his own. He got us checked in and low and behold when we got into the room it had not been cleaned. He then searched everyroom he had open and all were dirty. So this young man gives us the option of refunding our card or cleaning a room for us. He then shut up the front office and cleaned us a room spotless. You cannot ask for better customer relations than that!! Motel 6 please upgrade this hotel for these employees and give them something that they can be proud of, they def deserve it!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Texas City, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Normally I would rate this hotel a 1. It needs a total renovation on the rooms, grounds and pool. I had a very very bad experience up the road and we had explained it to the desk clerk before arriving at 1:30 in the morning. This was only his 4th day and his first time to be on his own. He got us checked in and low and behold when we got into the room it had not been cleaned. He then searched everyroom he had open and all were dirty. So this young man gives us the option of refunding our card or cleaning a room for us. He then shut up the front office and cleaned us a room spotless. You cannot ask for better customer relations than that!! Motel 6 please upgrade this hotel for these employees and give them something that they can be proud of, they def deserve it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r278756660-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>278756660</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>BATES MOTEL HELL ON EARTH</t>
+  </si>
+  <si>
+    <t>The moment as I stepped in the hotel to check in is when my night mare started, unfortunately it was REALITY
+1.I booked my room about 2 in half months before my stay for a discounted rate..I was emailed the confirmation. When I arrived I spent 20 minutes checking because the front desk could not find me and wanted to charge even more, after I showed my email I was FINALLY granted the rate.
+2. I walked into my room and first thing I noticed..it was HOT and the ac unit had been running ..which meant it was not working properly..
+3.shower time-OMG the tub was wobbling like if your walking on quick sand ..there was blavk stuff coming out from drainage..itSMELLED LIKE SEWER!!
+4. We requested to Change rooms huge inconvenience due to we have family and luggage!
+5. Hotel ran out if all hand soaps and lacking in towels
+6. Sheets were stainded and tub had a hair 
+7late night shift..from desk was super rude
+8. Had to go twice to have my card room card activated.
+,9. Was asked to leave pool since it closed at 10pm..however there was no sign indicating pool hrs..and as soon as we left ..right behind a couple enterted the pool and NOBODY asked them to LEAVE
+Inconclusion this motel should be reported for sanitary issues.  This motel was once La Quinnta which was very nice.  According to the front desk now...The moment as I stepped in the hotel to check in is when my night mare started, unfortunately it was REALITY1.I booked my room about 2 in half months before my stay for a discounted rate..I was emailed the confirmation. When I arrived I spent 20 minutes checking because the front desk could not find me and wanted to charge even more, after I showed my email I was FINALLY granted the rate.2. I walked into my room and first thing I noticed..it was HOT and the ac unit had been running ..which meant it was not working properly..3.shower time-OMG the tub was wobbling like if your walking on quick sand ..there was blavk stuff coming out from drainage..itSMELLED LIKE SEWER!!4. We requested to Change rooms huge inconvenience due to we have family and luggage!5. Hotel ran out if all hand soaps and lacking in towels6. Sheets were stainded and tub had a hair 7late night shift..from desk was super rude8. Had to go twice to have my card room card activated.,9. Was asked to leave pool since it closed at 10pm..however there was no sign indicating pool hrs..and as soon as we left ..right behind a couple enterted the pool and NOBODY asked them to LEAVEInconclusion this motel should be reported for sanitary issues.  This motel was once La Quinnta which was very nice.  According to the front desk now unnder new ownership of PATELS..go figure!  I would not my ever means recommend thi motel even if you were down to your last dollar!BAD!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Texas City, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>The moment as I stepped in the hotel to check in is when my night mare started, unfortunately it was REALITY
+1.I booked my room about 2 in half months before my stay for a discounted rate..I was emailed the confirmation. When I arrived I spent 20 minutes checking because the front desk could not find me and wanted to charge even more, after I showed my email I was FINALLY granted the rate.
+2. I walked into my room and first thing I noticed..it was HOT and the ac unit had been running ..which meant it was not working properly..
+3.shower time-OMG the tub was wobbling like if your walking on quick sand ..there was blavk stuff coming out from drainage..itSMELLED LIKE SEWER!!
+4. We requested to Change rooms huge inconvenience due to we have family and luggage!
+5. Hotel ran out if all hand soaps and lacking in towels
+6. Sheets were stainded and tub had a hair 
+7late night shift..from desk was super rude
+8. Had to go twice to have my card room card activated.
+,9. Was asked to leave pool since it closed at 10pm..however there was no sign indicating pool hrs..and as soon as we left ..right behind a couple enterted the pool and NOBODY asked them to LEAVE
+Inconclusion this motel should be reported for sanitary issues.  This motel was once La Quinnta which was very nice.  According to the front desk now...The moment as I stepped in the hotel to check in is when my night mare started, unfortunately it was REALITY1.I booked my room about 2 in half months before my stay for a discounted rate..I was emailed the confirmation. When I arrived I spent 20 minutes checking because the front desk could not find me and wanted to charge even more, after I showed my email I was FINALLY granted the rate.2. I walked into my room and first thing I noticed..it was HOT and the ac unit had been running ..which meant it was not working properly..3.shower time-OMG the tub was wobbling like if your walking on quick sand ..there was blavk stuff coming out from drainage..itSMELLED LIKE SEWER!!4. We requested to Change rooms huge inconvenience due to we have family and luggage!5. Hotel ran out if all hand soaps and lacking in towels6. Sheets were stainded and tub had a hair 7late night shift..from desk was super rude8. Had to go twice to have my card room card activated.,9. Was asked to leave pool since it closed at 10pm..however there was no sign indicating pool hrs..and as soon as we left ..right behind a couple enterted the pool and NOBODY asked them to LEAVEInconclusion this motel should be reported for sanitary issues.  This motel was once La Quinnta which was very nice.  According to the front desk now unnder new ownership of PATELS..go figure!  I would not my ever means recommend thi motel even if you were down to your last dollar!BAD!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r269131381-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>269131381</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Sad place to try the second time....</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay, although a little scary from all the trash in the parking lot, one weekend to get away. We tried to go back to two weeks later and it was horrible. We waited on the room to be cleaned before we went in. We had food in the microwave that was rotten, there was gum stuck to the curtain, the wall had blood, or something too close to blood dripped on the wall and floor. The toilet didn't work, the TV had smear marks all over it, the carpet had not been vacuumed in God knows how long, and finally my wife said she couldn't sleep in the room and was so disgusted that she just wanted to leave. We went back to the lobby, within one hour of checking in and they said we waited too long and they would not refund us. They offered another room with clean carpet but it had most of the other issues and smelled as if something was dead in there. They said I should call the manager on Monday since they couldn't, wouldn't, do a refund after 30 minutes. Monday came and I left two messages before I reached the manager on the third attempt. I told her I had my receipt and the person at the front counter signed it saying we left with the room UNTOUCHED an hour later but she did not care. The best...We had a pleasant stay, although a little scary from all the trash in the parking lot, one weekend to get away. We tried to go back to two weeks later and it was horrible. We waited on the room to be cleaned before we went in. We had food in the microwave that was rotten, there was gum stuck to the curtain, the wall had blood, or something too close to blood dripped on the wall and floor. The toilet didn't work, the TV had smear marks all over it, the carpet had not been vacuumed in God knows how long, and finally my wife said she couldn't sleep in the room and was so disgusted that she just wanted to leave. We went back to the lobby, within one hour of checking in and they said we waited too long and they would not refund us. They offered another room with clean carpet but it had most of the other issues and smelled as if something was dead in there. They said I should call the manager on Monday since they couldn't, wouldn't, do a refund after 30 minutes. Monday came and I left two messages before I reached the manager on the third attempt. I told her I had my receipt and the person at the front counter signed it saying we left with the room UNTOUCHED an hour later but she did not care. The best she said she would do is give me half back and charge me for two hours in the room! I did not realize Motel 6 is now a "pay by the hour"! That is exactly what this place looked like. She was excited that I said to give me whatever refund she felt was fair and did not care when I told her this was not over. She acted as if this refund was coming out of her pocket. She did instruct two housekeepers to go re-clean the room after I threatened to get the news crew to come look at their rooms. Where's Marvin Zindler when you need him?MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Texas City, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay, although a little scary from all the trash in the parking lot, one weekend to get away. We tried to go back to two weeks later and it was horrible. We waited on the room to be cleaned before we went in. We had food in the microwave that was rotten, there was gum stuck to the curtain, the wall had blood, or something too close to blood dripped on the wall and floor. The toilet didn't work, the TV had smear marks all over it, the carpet had not been vacuumed in God knows how long, and finally my wife said she couldn't sleep in the room and was so disgusted that she just wanted to leave. We went back to the lobby, within one hour of checking in and they said we waited too long and they would not refund us. They offered another room with clean carpet but it had most of the other issues and smelled as if something was dead in there. They said I should call the manager on Monday since they couldn't, wouldn't, do a refund after 30 minutes. Monday came and I left two messages before I reached the manager on the third attempt. I told her I had my receipt and the person at the front counter signed it saying we left with the room UNTOUCHED an hour later but she did not care. The best...We had a pleasant stay, although a little scary from all the trash in the parking lot, one weekend to get away. We tried to go back to two weeks later and it was horrible. We waited on the room to be cleaned before we went in. We had food in the microwave that was rotten, there was gum stuck to the curtain, the wall had blood, or something too close to blood dripped on the wall and floor. The toilet didn't work, the TV had smear marks all over it, the carpet had not been vacuumed in God knows how long, and finally my wife said she couldn't sleep in the room and was so disgusted that she just wanted to leave. We went back to the lobby, within one hour of checking in and they said we waited too long and they would not refund us. They offered another room with clean carpet but it had most of the other issues and smelled as if something was dead in there. They said I should call the manager on Monday since they couldn't, wouldn't, do a refund after 30 minutes. Monday came and I left two messages before I reached the manager on the third attempt. I told her I had my receipt and the person at the front counter signed it saying we left with the room UNTOUCHED an hour later but she did not care. The best she said she would do is give me half back and charge me for two hours in the room! I did not realize Motel 6 is now a "pay by the hour"! That is exactly what this place looked like. She was excited that I said to give me whatever refund she felt was fair and did not care when I told her this was not over. She acted as if this refund was coming out of her pocket. She did instruct two housekeepers to go re-clean the room after I threatened to get the news crew to come look at their rooms. Where's Marvin Zindler when you need him?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r255507979-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>255507979</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>a little below par.</t>
+  </si>
+  <si>
+    <t>I work in Texas City and sometimes instead of making the drive 2 hours home I will stay the night there. The room was ok and the sheets were clean. But, there was only a sheet and a blanket that you could watch the television through on the bed.  When we asked the front desk if we could have another blanket we were told no.  HmmmmmI was not very impressed with the hotel at all. No coffee pot in the room either.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Erika B, Director of Sales at Motel 6 Texas City, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>I work in Texas City and sometimes instead of making the drive 2 hours home I will stay the night there. The room was ok and the sheets were clean. But, there was only a sheet and a blanket that you could watch the television through on the bed.  When we asked the front desk if we could have another blanket we were told no.  HmmmmmI was not very impressed with the hotel at all. No coffee pot in the room either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r217497376-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217497376</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Not Bad At All</t>
+  </si>
+  <si>
+    <t>I had read previous reviews, but decided to experience this hotel for myself.  Glad I did.  The beds were comfortable and the rooms (2) were clean with cold air.  Tyler was the best and he is to be commended for letting us know at check-in that there should not be any problems, but if there were, they would be taken care of.  My finicky daughter even enjoyed her stay there and said she would come back for a few days of rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>M6TexasCityGM, General Manager at Motel 6 Texas City, responded to this reviewResponded July 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2014</t>
+  </si>
+  <si>
+    <t>I had read previous reviews, but decided to experience this hotel for myself.  Glad I did.  The beds were comfortable and the rooms (2) were clean with cold air.  Tyler was the best and he is to be commended for letting us know at check-in that there should not be any problems, but if there were, they would be taken care of.  My finicky daughter even enjoyed her stay there and said she would come back for a few days of rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r214298577-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>214298577</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>seriously?!?!</t>
+  </si>
+  <si>
+    <t>We stayed here for the fourth of july because it was cheaper than to stay on Galveston Island, So on that front it was great, but thats about the only positive out of our stay. When we got to our room there were 0 towels. I take that back; there was one hand towel. When we asked the maid service, (who were smoking inside rooms as they were "cleaning them") they handed us a single floor mat. The bathtub never stopped dripping the entire night and had hair on the floor of it when we arrived. We were charged $89 a night to sleep on blankets with what looked to be urine stains on them. Dont waste your time here, you're better off sleeping in your car.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for the fourth of july because it was cheaper than to stay on Galveston Island, So on that front it was great, but thats about the only positive out of our stay. When we got to our room there were 0 towels. I take that back; there was one hand towel. When we asked the maid service, (who were smoking inside rooms as they were "cleaning them") they handed us a single floor mat. The bathtub never stopped dripping the entire night and had hair on the floor of it when we arrived. We were charged $89 a night to sleep on blankets with what looked to be urine stains on them. Dont waste your time here, you're better off sleeping in your car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r211214552-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>211214552</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Best value and friendliest staff a plus for vacations!</t>
+  </si>
+  <si>
+    <t>On the end of our trip had to change hotels. Found this one and couldn't be happier.The rooms are clean, comfy beds and pillows.  Tyler at the front desk is so helpful and very professional. I will definitely come back and recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r206736809-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>206736809</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Clean and handy for interstate and visiting Galveston</t>
+  </si>
+  <si>
+    <t>I booked this on the hop as we couldn't find an economy motel in Galveston near enough to any facilities. We found the desk staff helpful, they gave me discount for over 60 and free wi fi, normally $3.99. There is a cafe in the car park and pubs facilities close by.Room was average but clean and had all you want for overnight stop at budget price.Only problem next morning was getting a cup of ice due to selfish people who had filled up ice chests without thought for fellow travellers</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r195587469-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>195587469</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>most helpful</t>
+  </si>
+  <si>
+    <t>Max and his staff went above and beyond expectations when we sailed out of Galveston. Ship couldn't sail due to fog. We were allowed to keep our room extra time and then were able to hang out in the lobby. Had we not been able to get a taxi Max was willing to drive us to the ship. We were able to leave our cars on the lot for the week of the cruise as we had booked an night there on return. We couldn't have asked for better service. The motel has seen better days but was clean and everything worked. There is no breakfast but with Denny's on the lot that was not a problem. We would highly recommend this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Max and his staff went above and beyond expectations when we sailed out of Galveston. Ship couldn't sail due to fog. We were allowed to keep our room extra time and then were able to hang out in the lobby. Had we not been able to get a taxi Max was willing to drive us to the ship. We were able to leave our cars on the lot for the week of the cruise as we had booked an night there on return. We couldn't have asked for better service. The motel has seen better days but was clean and everything worked. There is no breakfast but with Denny's on the lot that was not a problem. We would highly recommend this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r193394752-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>193394752</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Very Good for the price</t>
+  </si>
+  <si>
+    <t>My family and me were comfortable at this hotel for two nights before cruising. But they need to check and fix the tub because to slowly for drain.No free breakfast because they said the area was remodeling.Very convenient for 1 night before cruising, 15 minutes driving to ship terminal.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r188580991-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>188580991</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Xmas Stay</t>
+  </si>
+  <si>
+    <t>We found the room very clean, with functional space and plump pillows(a must in my book).  My only curiosity was the step up into tub; which after a night of xmas parties and walking around, my ankles were a little sore for that short climb.MoreShow less</t>
+  </si>
+  <si>
+    <t>TexasCityGM, General Manager at Motel 6 Texas City, responded to this reviewResponded January 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2014</t>
+  </si>
+  <si>
+    <t>We found the room very clean, with functional space and plump pillows(a must in my book).  My only curiosity was the step up into tub; which after a night of xmas parties and walking around, my ankles were a little sore for that short climb.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1041,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1073,1400 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_506.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_506.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r585658728-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>106248</t>
+  </si>
+  <si>
+    <t>585658728</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>DON'T BELIEVE THE PICTURES</t>
+  </si>
+  <si>
+    <t>OMG !! Where do I start? The first room had a dinning room table and chairs blocking the sidewalk with people playing dominoes. The floor was extremely unlevel, a gap around the front door, the foot of the bed was higher than the head and there was paint everywhere. The second room was just as unlevel, the chain had been ripped from the front door, the bathroom door was busted in half and would not close and as soon as my wife put her purse on the small table it fell off of the wall. On our way out a neighboring tenant asked if our roaches were bad. This was something out of a horror movie. If I had not experienced it, I would not believe it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Texas City, responded to this reviewResponded June 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2018</t>
+  </si>
+  <si>
+    <t>OMG !! Where do I start? The first room had a dinning room table and chairs blocking the sidewalk with people playing dominoes. The floor was extremely unlevel, a gap around the front door, the foot of the bed was higher than the head and there was paint everywhere. The second room was just as unlevel, the chain had been ripped from the front door, the bathroom door was busted in half and would not close and as soon as my wife put her purse on the small table it fell off of the wall. On our way out a neighboring tenant asked if our roaches were bad. This was something out of a horror movie. If I had not experienced it, I would not believe it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r568746733-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>568746733</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWFULLY noisy </t>
+  </si>
+  <si>
+    <t>It is a new building,  unfortunately however the cons were still heavy, out weighing any pros. The big con was:The noise. Walls were extremely thin, we heard our neighbors at a uncomfortable level of clarity. The sound from the hallway was even worse, kids and even adults making all sorts of ruckus in the late evening which bounced right off the hard floors, through the door and into the room.  Thus making it very difficult to sleep.  The pros:New building with new roomsNice restaurant across street for food. Staff were friendly and niceWe will not be returning to the Motel 6 nor will we recommend it to our friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Texas City, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>It is a new building,  unfortunately however the cons were still heavy, out weighing any pros. The big con was:The noise. Walls were extremely thin, we heard our neighbors at a uncomfortable level of clarity. The sound from the hallway was even worse, kids and even adults making all sorts of ruckus in the late evening which bounced right off the hard floors, through the door and into the room.  Thus making it very difficult to sleep.  The pros:New building with new roomsNice restaurant across street for food. Staff were friendly and niceWe will not be returning to the Motel 6 nor will we recommend it to our friends.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r532740408-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
-    <t>56761</t>
-  </si>
-  <si>
-    <t>106248</t>
-  </si>
-  <si>
     <t>532740408</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r508254362-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -198,9 +255,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Texas City, responded to this reviewResponded August 3, 2017</t>
   </si>
   <si>
@@ -231,6 +285,45 @@
     <t>This was a disaster......every other hotel was booked so tried this one.  No light in barhroom, tv didn't work, telephone didn't work,  all guest were complaining of similar issues...this place is NASTY!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r499785945-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>499785945</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Motel Zero</t>
+  </si>
+  <si>
+    <t>Worst stay by far. Dirty sheets. Roaches. No ironing board, no iron, no hangars. Tub too tall to step in safely. Towels had dried snot on them. And no shampoo. Staff were nice, but the motel needs some professional help with improving their image. I'm surprised that this place is even branded. Just save yourself the headache and stay somewhere for a little more money.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Worst stay by far. Dirty sheets. Roaches. No ironing board, no iron, no hangars. Tub too tall to step in safely. Towels had dried snot on them. And no shampoo. Staff were nice, but the motel needs some professional help with improving their image. I'm surprised that this place is even branded. Just save yourself the headache and stay somewhere for a little more money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r492745007-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>492745007</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>The Worst hotel stay EVER!!!</t>
+  </si>
+  <si>
+    <t>We were not told the hotel was under renovations or remodeling.  Not to mention that the property had been experiencing power outage issues for several weeks.  This property is independently owned and IS NOT supported by Motel 6.  During our stay we lost power for over 2.5 hours, the 1st night and nearly 4 hours the second night.  I spoke with staff about a refund, or some sort of compensation and was told the owner said NO!  My view is this family/owner should stick to running convenience stores and give up on lodging....no customer service....PERIOD !!!!!!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r484520461-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -291,6 +384,48 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r414396171-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>414396171</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>AWFUL!!!</t>
+  </si>
+  <si>
+    <t>Horrible. Terrible. First room we got, the AC was broken. Second room we got reeked of mold and had a huge bleach stain on the carpet. No bed skirt, missing light bulb. Broken drawers on the dresser. DO NOT go here. We left and went elsewhere. Trash all over the parking lot. Just disgusting.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r361740727-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>361740727</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Stayed 03/26/16</t>
+  </si>
+  <si>
+    <t>The room smells. Like dirty feet or a dirty dog.  The refrigerator made noise.  The bathtub was stained and the shower spray was so weak.  The dryer in the room did not work, but the guy at the desk did get another one from another room.  That's why I gave it two stars.  I will never stay here again.  The price was good but I guess you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Texas City, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>The room smells. Like dirty feet or a dirty dog.  The refrigerator made noise.  The bathtub was stained and the shower spray was so weak.  The dryer in the room did not work, but the guy at the desk did get another one from another room.  That's why I gave it two stars.  I will never stay here again.  The price was good but I guess you get what you pay for.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r351195851-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -348,10 +483,37 @@
     <t>I checked in planned to stay a few weeks get to my room and there's no tv so I go to call front desk and there's no phone moved to another room tv was messed up but you could still watch it next morning ac goes out so I go to call them and the phone is there but do dont work the lady told me to hit the reset button i went to looking and the wires are all spliced together and outlet is busted up so on to the next room was just wanting to take quick shower and not wash my hair since I just did my hair before I had to move everything again well I get in and I feel my head getting wet the ceiling was leaking also the shower on and off pull thingy was broke, toilet didn't wanna flush,and our deadbolt on the door was broke so you had to have key to close door called the front desk(since we had a working phone) and they offered to move us again.....we checked outMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I checked in planned to stay a few weeks get to my room and there's no tv so I go to call front desk and there's no phone moved to another room tv was messed up but you could still watch it next morning ac goes out so I go to call them and the phone is there but do dont work the lady told me to hit the reset button i went to looking and the wires are all spliced together and outlet is busted up so on to the next room was just wanting to take quick shower and not wash my hair since I just did my hair before I had to move everything again well I get in and I feel my head getting wet the ceiling was leaking also the shower on and off pull thingy was broke, toilet didn't wanna flush,and our deadbolt on the door was broke so you had to have key to close door called the front desk(since we had a working phone) and they offered to move us again.....we checked outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r347760662-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>347760662</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel had mold, air cent in bath room had a car air fresher holding a fabric softer sheet in air vent.  Room was suppose to be handicapped and the tub was to tall to get into.  Window seals were dirty, and door had gaps </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r323488901-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>323488901</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>the lady at the front desk was awesome</t>
+  </si>
+  <si>
+    <t>i had a problem arise in the middle of the night and the front desk clerk Sherri, helped me with the problem and with a great outcome. i would recomend this hotel to my frienmdws to visit when in town</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r316922313-Motel_6_Texas_City-Texas_City_Texas.html</t>
@@ -455,6 +617,57 @@
 Inconclusion this motel should be reported for sanitary issues.  This motel was once La Quinnta which was very nice.  According to the front desk now...The moment as I stepped in the hotel to check in is when my night mare started, unfortunately it was REALITY1.I booked my room about 2 in half months before my stay for a discounted rate..I was emailed the confirmation. When I arrived I spent 20 minutes checking because the front desk could not find me and wanted to charge even more, after I showed my email I was FINALLY granted the rate.2. I walked into my room and first thing I noticed..it was HOT and the ac unit had been running ..which meant it was not working properly..3.shower time-OMG the tub was wobbling like if your walking on quick sand ..there was blavk stuff coming out from drainage..itSMELLED LIKE SEWER!!4. We requested to Change rooms huge inconvenience due to we have family and luggage!5. Hotel ran out if all hand soaps and lacking in towels6. Sheets were stainded and tub had a hair 7late night shift..from desk was super rude8. Had to go twice to have my card room card activated.,9. Was asked to leave pool since it closed at 10pm..however there was no sign indicating pool hrs..and as soon as we left ..right behind a couple enterted the pool and NOBODY asked them to LEAVEInconclusion this motel should be reported for sanitary issues.  This motel was once La Quinnta which was very nice.  According to the front desk now unnder new ownership of PATELS..go figure!  I would not my ever means recommend thi motel even if you were down to your last dollar!BAD!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r272200685-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>272200685</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>This was just a filthy stay.</t>
+  </si>
+  <si>
+    <t>It was difficult to even get to the room because the breezeways were so nasty.  I didn't want to bump into anything and then the door was nasty. Inside looked tidy but the light was not working in the bathroom and there was not a microwave or refrigerator in the room.   Just not a pleasant or comfortable stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Texas City, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>It was difficult to even get to the room because the breezeways were so nasty.  I didn't want to bump into anything and then the door was nasty. Inside looked tidy but the light was not working in the bathroom and there was not a microwave or refrigerator in the room.   Just not a pleasant or comfortable stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r271108198-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>271108198</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Excellent service. Recommend highly rooms were very large. No problems. We received early check In. Will retun in near future with large group.  Rooms are clean and cool!  Management was also very helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>M6TexasCityGM, General Manager at Motel 6 Texas City, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Excellent service. Recommend highly rooms were very large. No problems. We received early check In. Will retun in near future with large group.  Rooms are clean and cool!  Management was also very helpfulMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r269131381-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -536,6 +749,36 @@
     <t>I had read previous reviews, but decided to experience this hotel for myself.  Glad I did.  The beds were comfortable and the rooms (2) were clean with cold air.  Tyler was the best and he is to be commended for letting us know at check-in that there should not be any problems, but if there were, they would be taken care of.  My finicky daughter even enjoyed her stay there and said she would come back for a few days of rest.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r217475602-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217475602</t>
+  </si>
+  <si>
+    <t>Well....</t>
+  </si>
+  <si>
+    <t>If you are looking for a cheap place to sleep, this is it.  Obviously the hotel isn't a 5 star establishment but the bed was soft and comfortable. The pillows were lumpy, dirty chair, and the bathroom had only soap and towels, no shampoo. Since, we only stayed one night and wasn't moving in, this suited our needs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r216252022-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>216252022</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>This hotel is just your average stay it's not the best place to stay but you can't beat the price. If you just want a place to stay with nothing fancy with affordable rate this is the place for you clean hotel.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r214298577-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -587,6 +830,55 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r204583599-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>204583599</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Read all about my horrible experience before you stay here please</t>
+  </si>
+  <si>
+    <t>Do not ever make a reservation to stay here!!! I made a guaranteed reservation on Tuesday 04/22/14 with a CC and planned on paying cash when i arrived. I guess they tried to run the CC for the entire stay at 8pm on my check in date of 04/25/14 and it declined so they sold my room to some one else. Never once calling me. So Myself, my wife, and our puppy arrive at 10pm and are told WITH attitude from Mrs, Christine that they had canceled my reservation! Again... NO CALLS! Not a one! So here we are, 10pm and no place to stay. Every place is booked in Texas city and after 1 hr we ended up having to drive all the way back into Houston and stay around Hobby airport. As long as i'm on gods green earth, i will NEVER stay at a Motel 6 ever ever again!!! 
+Also, Mrs. Christine, the front desk lady..... Yeah, SUPER SUPER rude! She is in the wrong business if dealing with the public is what she was hired for. She Does NOT represent Motel 6 well at all! She literally raised her voice to somewhat of a yell, at me because she kept giving me conflicting reasons on why they gave away my room and i politely called her out on it. Shame on you lady. 
+Mind you, I've stayed at this exact location when it was a LaQuinta...Do not ever make a reservation to stay here!!! I made a guaranteed reservation on Tuesday 04/22/14 with a CC and planned on paying cash when i arrived. I guess they tried to run the CC for the entire stay at 8pm on my check in date of 04/25/14 and it declined so they sold my room to some one else. Never once calling me. So Myself, my wife, and our puppy arrive at 10pm and are told WITH attitude from Mrs, Christine that they had canceled my reservation! Again... NO CALLS! Not a one! So here we are, 10pm and no place to stay. Every place is booked in Texas city and after 1 hr we ended up having to drive all the way back into Houston and stay around Hobby airport. As long as i'm on gods green earth, i will NEVER stay at a Motel 6 ever ever again!!! Also, Mrs. Christine, the front desk lady..... Yeah, SUPER SUPER rude! She is in the wrong business if dealing with the public is what she was hired for. She Does NOT represent Motel 6 well at all! She literally raised her voice to somewhat of a yell, at me because she kept giving me conflicting reasons on why they gave away my room and i politely called her out on it. Shame on you lady. Mind you, I've stayed at this exact location when it was a LaQuinta for MANY years and never once had a single problem!!! Take your business elsewhere. They are NOT family friendly!!! Motel 6 websites Reservation policy btw: Room charges are paid at registration or by 12 Noon in advance of each subsequent night's stay. They didn't abide by their own policy for sure!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Do not ever make a reservation to stay here!!! I made a guaranteed reservation on Tuesday 04/22/14 with a CC and planned on paying cash when i arrived. I guess they tried to run the CC for the entire stay at 8pm on my check in date of 04/25/14 and it declined so they sold my room to some one else. Never once calling me. So Myself, my wife, and our puppy arrive at 10pm and are told WITH attitude from Mrs, Christine that they had canceled my reservation! Again... NO CALLS! Not a one! So here we are, 10pm and no place to stay. Every place is booked in Texas city and after 1 hr we ended up having to drive all the way back into Houston and stay around Hobby airport. As long as i'm on gods green earth, i will NEVER stay at a Motel 6 ever ever again!!! 
+Also, Mrs. Christine, the front desk lady..... Yeah, SUPER SUPER rude! She is in the wrong business if dealing with the public is what she was hired for. She Does NOT represent Motel 6 well at all! She literally raised her voice to somewhat of a yell, at me because she kept giving me conflicting reasons on why they gave away my room and i politely called her out on it. Shame on you lady. 
+Mind you, I've stayed at this exact location when it was a LaQuinta...Do not ever make a reservation to stay here!!! I made a guaranteed reservation on Tuesday 04/22/14 with a CC and planned on paying cash when i arrived. I guess they tried to run the CC for the entire stay at 8pm on my check in date of 04/25/14 and it declined so they sold my room to some one else. Never once calling me. So Myself, my wife, and our puppy arrive at 10pm and are told WITH attitude from Mrs, Christine that they had canceled my reservation! Again... NO CALLS! Not a one! So here we are, 10pm and no place to stay. Every place is booked in Texas city and after 1 hr we ended up having to drive all the way back into Houston and stay around Hobby airport. As long as i'm on gods green earth, i will NEVER stay at a Motel 6 ever ever again!!! Also, Mrs. Christine, the front desk lady..... Yeah, SUPER SUPER rude! She is in the wrong business if dealing with the public is what she was hired for. She Does NOT represent Motel 6 well at all! She literally raised her voice to somewhat of a yell, at me because she kept giving me conflicting reasons on why they gave away my room and i politely called her out on it. Shame on you lady. Mind you, I've stayed at this exact location when it was a LaQuinta for MANY years and never once had a single problem!!! Take your business elsewhere. They are NOT family friendly!!! Motel 6 websites Reservation policy btw: Room charges are paid at registration or by 12 Noon in advance of each subsequent night's stay. They didn't abide by their own policy for sure!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r196019814-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>196019814</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Rip off</t>
+  </si>
+  <si>
+    <t>We stayed here for Mardi Gras in Galveston. Room smelled and had to run a/c. Tub had weak spots and carpet was nasty. Linen had black stains on them and had to call down to front desk when we returned on Saturday night for towels because we weren't left any by the maid. Was told at check in that a non smoking room was all they had and that my husband could smoke outside. The Monday after check out I seen where our credit card was charged an extra $250. Called and was told to leave voicemail for Regional Manager. Called back after not having a return call to be told that he refused to speak with me and dispute with my bank. Worst experience ever. MoreShow less</t>
+  </si>
+  <si>
+    <t>TexasCityGM, General Manager at Motel 6 Texas City, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for Mardi Gras in Galveston. Room smelled and had to run a/c. Tub had weak spots and carpet was nasty. Linen had black stains on them and had to call down to front desk when we returned on Saturday night for towels because we weren't left any by the maid. Was told at check in that a non smoking room was all they had and that my husband could smoke outside. The Monday after check out I seen where our credit card was charged an extra $250. Called and was told to leave voicemail for Regional Manager. Called back after not having a return call to be told that he refused to speak with me and dispute with my bank. Worst experience ever. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r195587469-Motel_6_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -648,6 +940,30 @@
   </si>
   <si>
     <t>We found the room very clean, with functional space and plump pillows(a must in my book).  My only curiosity was the step up into tub; which after a night of xmas parties and walking around, my ankles were a little sore for that short climb.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106248-r187744794-Motel_6_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>187744794</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>What a dump</t>
+  </si>
+  <si>
+    <t>Very outdated property. Smelled like wet dog and dirty socks masked by cheap perfume. Water in tub dripped all night, Stains in carpet &amp; counter tops. Dust everywhere. Cracks in walls and ceilings. A/C never cooled the room. Leaf blower @ 9:00 PM right outside your door. Convenient Ice maker broken - guests have to go upstairs to get ice. Mattress sunk over 8 inches, hurts your back. Housekeeping lacks audits because rooms were not kept clean. Obvious bug problems because the pesticide smell was awful. Never stay here again, even if they paid me. Has to be the second worst stay of my life. I'd rather sleep in a tent on a cold rainy night. Some of the staff members were helpful and kind.  Owners should put some profits toward a major renovation and management should audit housekeeping / grounds. Best thing about this is it's location. Working in the plant?  Only a few blocks and easy to get to. Denny's in the same parking lot.  But there are much better places only blocks away.MoreShow less</t>
+  </si>
+  <si>
+    <t>TexasCityGM, General Manager at Motel 6 Texas City, responded to this reviewResponded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Very outdated property. Smelled like wet dog and dirty socks masked by cheap perfume. Water in tub dripped all night, Stains in carpet &amp; counter tops. Dust everywhere. Cracks in walls and ceilings. A/C never cooled the room. Leaf blower @ 9:00 PM right outside your door. Convenient Ice maker broken - guests have to go upstairs to get ice. Mattress sunk over 8 inches, hurts your back. Housekeeping lacks audits because rooms were not kept clean. Obvious bug problems because the pesticide smell was awful. Never stay here again, even if they paid me. Has to be the second worst stay of my life. I'd rather sleep in a tent on a cold rainy night. Some of the staff members were helpful and kind.  Owners should put some profits toward a major renovation and management should audit housekeeping / grounds. Best thing about this is it's location. Working in the plant?  Only a few blocks and easy to get to. Denny's in the same parking lot.  But there are much better places only blocks away.More</t>
   </si>
 </sst>
 </file>
@@ -1192,17 +1508,27 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1544,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1227,49 +1553,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1285,7 +1605,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1294,25 +1614,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1323,14 +1643,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>62</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1346,7 +1662,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1355,39 +1671,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1403,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1412,45 +1738,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1466,7 +1790,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1475,25 +1799,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1504,10 +1828,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1523,7 +1851,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1532,39 +1860,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1580,7 +1914,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1589,22 +1923,22 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
@@ -1618,14 +1952,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" t="s">
-        <v>103</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1641,7 +1971,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1650,39 +1980,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +2034,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1707,25 +2043,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1736,12 +2072,8 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
         <v>120</v>
       </c>
@@ -1759,7 +2091,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1768,49 +2100,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X12" t="s">
-        <v>128</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1826,7 +2148,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1835,43 +2157,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
         <v>131</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>135</v>
-      </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -1887,7 +2215,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1896,22 +2224,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
         <v>140</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>141</v>
-      </c>
-      <c r="K14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>144</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -1919,24 +2247,16 @@
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X14" t="s">
-        <v>146</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -1952,7 +2272,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1961,33 +2281,29 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="s"/>
@@ -1995,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -2017,7 +2333,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2026,49 +2342,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X16" t="s">
-        <v>164</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -2084,7 +2390,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2093,45 +2399,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -2147,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2156,45 +2456,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -2210,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2219,49 +2509,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -2277,7 +2561,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2286,49 +2570,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -2344,7 +2628,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2353,49 +2637,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2411,7 +2689,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2420,37 +2698,33 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
         <v>197</v>
       </c>
-      <c r="J22" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" t="s">
-        <v>200</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>195</v>
-      </c>
-      <c r="O22" t="s">
-        <v>60</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2460,13 +2734,992 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>201</v>
       </c>
-      <c r="X22" t="s">
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>202</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="J23" t="s">
         <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>276</v>
+      </c>
+      <c r="X33" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s">
+        <v>283</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O37" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>305</v>
+      </c>
+      <c r="X37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
